--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/OREGON_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/OREGON_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1241"/>
+  <dimension ref="A1:D1235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>San José de Gracia</t>
+          <t>San José De Gracia</t>
         </is>
       </c>
       <c r="C6">
@@ -706,7 +706,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C25">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C29">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C46">
@@ -1387,7 +1387,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C77">
@@ -1400,7 +1400,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C78">
@@ -1504,7 +1504,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C86">
@@ -1530,7 +1530,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C88">
@@ -1638,7 +1638,7 @@
         <v>10</v>
       </c>
       <c r="D95">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="96">
@@ -1748,14 +1748,14 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C104">
         <v>10</v>
       </c>
       <c r="D104">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="105">
@@ -1774,7 +1774,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2174,7 +2174,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C136">
@@ -2278,12 +2278,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C144">
@@ -2322,7 +2322,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C147">
@@ -2335,7 +2335,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C148">
@@ -2387,7 +2387,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C152">
@@ -2452,7 +2452,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C157">
@@ -2478,7 +2478,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C159">
@@ -2543,7 +2543,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C164">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C168">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C169">
@@ -2725,14 +2725,14 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C178">
         <v>10</v>
       </c>
       <c r="D178">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="179">
@@ -2816,20 +2816,20 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C185">
         <v>10</v>
       </c>
       <c r="D185">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C186">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C204">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C210">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C211">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C212">
@@ -3315,7 +3315,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C223">
@@ -3328,7 +3328,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C224">
@@ -3341,7 +3341,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C225">
@@ -3374,7 +3374,7 @@
         <v>10</v>
       </c>
       <c r="D227">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="228">
@@ -3432,7 +3432,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C232">
@@ -3484,7 +3484,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C236">
@@ -3562,7 +3562,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C242">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C247">
@@ -3653,7 +3653,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C249">
@@ -3666,7 +3666,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C250">
@@ -3679,7 +3679,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C251">
@@ -3731,7 +3731,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C255">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C260">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C262">
@@ -3840,7 +3840,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C263">
@@ -3899,13 +3899,13 @@
         <v>10</v>
       </c>
       <c r="D267">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C268">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C269">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C272">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C274">
@@ -3996,7 +3996,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C275">
@@ -4061,20 +4061,20 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C280">
         <v>10</v>
       </c>
       <c r="D280">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C281">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C285">
@@ -4139,7 +4139,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C286">
@@ -4217,7 +4217,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C292">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C293">
@@ -4256,7 +4256,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C295">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C296">
@@ -4295,7 +4295,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C298">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C301">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C313">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C315">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C317">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C318">
@@ -4594,7 +4594,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C321">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C322">
@@ -4640,7 +4640,7 @@
         <v>10</v>
       </c>
       <c r="D324">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="325">
@@ -4742,14 +4742,14 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C332">
         <v>10</v>
       </c>
       <c r="D332">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="333">
@@ -4820,7 +4820,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C338">
@@ -4859,7 +4859,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C341">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C343">
@@ -4970,13 +4970,13 @@
         <v>10</v>
       </c>
       <c r="D349">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C350">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C351">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C352">
@@ -5015,7 +5015,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C353">
@@ -5028,7 +5028,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C354">
@@ -5041,7 +5041,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C355">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C356">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C358">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C361">
@@ -5145,7 +5145,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C363">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C364">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C365">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C371">
@@ -5262,7 +5262,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C372">
@@ -5319,7 +5319,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C376">
@@ -5332,7 +5332,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C377">
@@ -5384,7 +5384,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C381">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C384">
@@ -5449,7 +5449,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C386">
@@ -5514,7 +5514,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C391">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C398">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C399">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C406">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C412">
@@ -5800,7 +5800,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C413">
@@ -5813,7 +5813,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C414">
@@ -5865,7 +5865,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C418">
@@ -5943,7 +5943,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C424">
@@ -5976,7 +5976,7 @@
         <v>10</v>
       </c>
       <c r="D426">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="427">
@@ -6034,7 +6034,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C431">
@@ -6099,7 +6099,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C436">
@@ -6125,7 +6125,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C438">
@@ -6164,7 +6164,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C441">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C443">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C444">
@@ -6242,7 +6242,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C447">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C448">
@@ -6320,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C453">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C454">
@@ -6359,7 +6359,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C456">
@@ -6372,7 +6372,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C457">
@@ -6528,7 +6528,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C469">
@@ -6541,7 +6541,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C470">
@@ -6554,7 +6554,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C471">
@@ -6606,7 +6606,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C475">
@@ -6619,7 +6619,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C476">
@@ -6658,7 +6658,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C479">
@@ -6671,7 +6671,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C480">
@@ -6684,7 +6684,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C481">
@@ -6852,7 +6852,7 @@
         <v>10</v>
       </c>
       <c r="D493">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="494">
@@ -6988,7 +6988,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C504">
@@ -7014,7 +7014,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C506">
@@ -7359,7 +7359,7 @@
         <v>10</v>
       </c>
       <c r="D532">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="533">
@@ -7502,7 +7502,7 @@
         <v>10</v>
       </c>
       <c r="D543">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="544">
@@ -7820,7 +7820,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C568">
@@ -8131,7 +8131,7 @@
         <v>10</v>
       </c>
       <c r="D591">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="592">
@@ -8215,7 +8215,7 @@
     <row r="598">
       <c r="B598" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C598">
@@ -8267,7 +8267,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C602">
@@ -8332,7 +8332,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C607">
@@ -8345,7 +8345,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C608">
@@ -8480,7 +8480,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C618">
@@ -8493,7 +8493,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C619">
@@ -8545,14 +8545,14 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C623">
         <v>10</v>
       </c>
       <c r="D623">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="624">
@@ -8636,7 +8636,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C630">
@@ -8797,7 +8797,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C642">
@@ -8841,14 +8841,14 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C645">
         <v>10</v>
       </c>
       <c r="D645">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="646">
@@ -8919,7 +8919,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C651">
@@ -8952,13 +8952,13 @@
         <v>10</v>
       </c>
       <c r="D653">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="654">
       <c r="B654" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C654">
@@ -8984,7 +8984,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C656">
@@ -9010,7 +9010,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C658">
@@ -9023,7 +9023,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C659">
@@ -9036,7 +9036,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C660">
@@ -9049,7 +9049,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C661">
@@ -9062,14 +9062,14 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C662">
         <v>10</v>
       </c>
       <c r="D662">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="663">
@@ -9088,20 +9088,20 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C664">
         <v>10</v>
       </c>
       <c r="D664">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C665">
@@ -9166,7 +9166,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C670">
@@ -9186,7 +9186,7 @@
         <v>10</v>
       </c>
       <c r="D671">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="672">
@@ -9205,7 +9205,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C673">
@@ -9218,7 +9218,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C674">
@@ -9231,7 +9231,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C675">
@@ -9244,7 +9244,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C676">
@@ -9257,7 +9257,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C677">
@@ -9322,7 +9322,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>San Agustín de las Juntas</t>
+          <t>San Agustín De Las Juntas</t>
         </is>
       </c>
       <c r="C682">
@@ -9413,7 +9413,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C689">
@@ -9751,7 +9751,7 @@
     <row r="715">
       <c r="B715" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C715">
@@ -10102,7 +10102,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C742">
@@ -10219,7 +10219,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C751">
@@ -10310,7 +10310,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C758">
@@ -10401,7 +10401,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C765">
@@ -10505,7 +10505,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C773">
@@ -10557,7 +10557,7 @@
     <row r="777">
       <c r="B777" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C777">
@@ -10570,7 +10570,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Santa Lucía del Camino</t>
+          <t>Santa Lucía Del Camino</t>
         </is>
       </c>
       <c r="C778">
@@ -10817,7 +10817,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C797">
@@ -11051,7 +11051,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C815">
@@ -11142,7 +11142,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C822">
@@ -11155,7 +11155,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C823">
@@ -11168,7 +11168,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C824">
@@ -11181,7 +11181,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C825">
@@ -11194,7 +11194,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C826">
@@ -11207,7 +11207,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C827">
@@ -11220,7 +11220,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C828">
@@ -11233,7 +11233,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C829">
@@ -11246,7 +11246,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C830">
@@ -11272,7 +11272,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C832">
@@ -11298,7 +11298,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C834">
@@ -11324,7 +11324,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C836">
@@ -11622,7 +11622,7 @@
         <v>10</v>
       </c>
       <c r="D858">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="859">
@@ -11654,7 +11654,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C861">
@@ -11823,7 +11823,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C874">
@@ -11888,7 +11888,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C879">
@@ -11953,7 +11953,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C884">
@@ -12122,7 +12122,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C897">
@@ -12135,7 +12135,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C898">
@@ -12174,7 +12174,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C901">
@@ -12194,7 +12194,7 @@
         <v>10</v>
       </c>
       <c r="D902">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="903">
@@ -12265,7 +12265,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C908">
@@ -12278,7 +12278,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C909">
@@ -12317,7 +12317,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C912">
@@ -12343,7 +12343,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C914">
@@ -12395,7 +12395,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C918">
@@ -12512,7 +12512,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C927">
@@ -12662,7 +12662,7 @@
         <v>10</v>
       </c>
       <c r="D938">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="939">
@@ -12738,7 +12738,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C944">
@@ -12764,7 +12764,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C946">
@@ -12810,7 +12810,7 @@
         <v>10</v>
       </c>
       <c r="D949">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="950">
@@ -12829,7 +12829,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C951">
@@ -12855,7 +12855,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C953">
@@ -12894,7 +12894,7 @@
     <row r="956">
       <c r="B956" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C956">
@@ -13099,7 +13099,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C971">
@@ -13125,7 +13125,7 @@
     <row r="973">
       <c r="B973" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C973">
@@ -13151,7 +13151,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C975">
@@ -13229,7 +13229,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C981">
@@ -13242,7 +13242,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C982">
@@ -13255,7 +13255,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C983">
@@ -13449,7 +13449,7 @@
         <v>10</v>
       </c>
       <c r="D997">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="998">
@@ -13964,7 +13964,7 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1036">
@@ -14099,7 +14099,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1046">
@@ -14125,7 +14125,7 @@
     <row r="1048">
       <c r="B1048" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1048">
@@ -14151,7 +14151,7 @@
     <row r="1050">
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1050">
@@ -14416,7 +14416,7 @@
     <row r="1070">
       <c r="B1070" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1070">
@@ -14572,7 +14572,7 @@
     <row r="1082">
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1082">
@@ -14657,7 +14657,7 @@
         <v>10</v>
       </c>
       <c r="D1088">
-        <v>0.0009415309292910273</v>
+        <v>0.0009415309292910272</v>
       </c>
     </row>
     <row r="1089">
@@ -14676,7 +14676,7 @@
     <row r="1090">
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1090">
@@ -14845,7 +14845,7 @@
     <row r="1103">
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1103">
@@ -14871,7 +14871,7 @@
     <row r="1105">
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1105">
@@ -14962,7 +14962,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1112">
@@ -15014,7 +15014,7 @@
     <row r="1116">
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1116">
@@ -15066,7 +15066,7 @@
     <row r="1120">
       <c r="B1120" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1120">
@@ -15079,7 +15079,7 @@
     <row r="1121">
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1121">
@@ -15118,7 +15118,7 @@
     <row r="1124">
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1124">
@@ -15222,7 +15222,7 @@
     <row r="1132">
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1132">
@@ -15248,7 +15248,7 @@
     <row r="1134">
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1134">
@@ -15326,7 +15326,7 @@
     <row r="1140">
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1140">
@@ -15378,7 +15378,7 @@
     <row r="1144">
       <c r="B1144" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1144">
@@ -15651,7 +15651,7 @@
     <row r="1165">
       <c r="B1165" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1165">
@@ -15716,7 +15716,7 @@
     <row r="1170">
       <c r="B1170" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1170">
@@ -16116,7 +16116,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1200">
@@ -16142,7 +16142,7 @@
     <row r="1202">
       <c r="B1202" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1202">
@@ -16324,7 +16324,7 @@
     <row r="1216">
       <c r="B1216" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1216">
@@ -16337,7 +16337,7 @@
     <row r="1217">
       <c r="B1217" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1217">
@@ -16441,7 +16441,7 @@
     <row r="1225">
       <c r="B1225" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1225">
@@ -16454,7 +16454,7 @@
     <row r="1226">
       <c r="B1226" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1226">
@@ -16467,7 +16467,7 @@
     <row r="1227">
       <c r="B1227" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1227">
@@ -16493,7 +16493,7 @@
     <row r="1229">
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1229">
@@ -16579,41 +16579,6 @@
       </c>
       <c r="D1235">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1237">
-      <c r="A1237" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1238">
-      <c r="A1238" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1239">
-      <c r="A1239" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1240">
-      <c r="A1240" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1241">
-      <c r="A1241" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
